--- a/bens_data.xlsx
+++ b/bens_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleach\Documents\data_projects\NIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F10336A-0271-4760-9817-850EF3018782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769ED549-959D-4158-9946-CEE871554885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="2" xr2:uid="{D101F683-F1E2-414C-8681-F49D9757B0AD}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="15390" windowHeight="9435" activeTab="1" xr2:uid="{D101F683-F1E2-414C-8681-F49D9757B0AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -84,27 +87,15 @@
     <t>net</t>
   </si>
   <si>
-    <t>Coal-fired power plant</t>
-  </si>
-  <si>
-    <t>Combined-cycle natural gas power plant</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
     <t>GGPPA</t>
   </si>
   <si>
-    <t>New combined-cycle gas</t>
-  </si>
-  <si>
     <t>Coal</t>
   </si>
   <si>
-    <t>Existing combined-cycle gas</t>
-  </si>
-  <si>
     <t>Zero-emissions</t>
   </si>
   <si>
@@ -130,6 +121,18 @@
   </si>
   <si>
     <t>Renewable generation</t>
+  </si>
+  <si>
+    <t>New NGCC</t>
+  </si>
+  <si>
+    <t>Existing NGCC</t>
+  </si>
+  <si>
+    <t>NGCC power plant</t>
+  </si>
+  <si>
+    <t>Coal power plant</t>
   </si>
 </sst>
 </file>
@@ -261,9 +264,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>348343</xdr:colOff>
+      <xdr:colOff>347663</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>140335</xdr:rowOff>
+      <xdr:rowOff>141696</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -660,21 +663,21 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="48.07421875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.15234375" customWidth="1"/>
+    <col min="1" max="1" width="48.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1328125" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.15234375" customWidth="1"/>
-    <col min="5" max="5" width="13.69140625" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="5.84375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5.86328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.84375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.86328125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -697,7 +700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2014</v>
       </c>
@@ -710,7 +713,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2015</v>
       </c>
@@ -723,7 +726,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2016</v>
       </c>
@@ -736,7 +739,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2017</v>
       </c>
@@ -749,7 +752,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2018</v>
       </c>
@@ -762,7 +765,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2019</v>
       </c>
@@ -777,7 +780,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2020</v>
       </c>
@@ -790,7 +793,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2021</v>
       </c>
@@ -805,7 +808,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2022</v>
       </c>
@@ -826,7 +829,7 @@
         <v>0.18430034129692832</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2023</v>
       </c>
@@ -843,7 +846,7 @@
         <v>0.25625843131132381</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2024</v>
       </c>
@@ -862,7 +865,7 @@
         <v>0.30085577163921645</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2025</v>
       </c>
@@ -877,7 +880,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2026</v>
       </c>
@@ -890,7 +893,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2027</v>
       </c>
@@ -903,7 +906,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2028</v>
       </c>
@@ -918,7 +921,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2029</v>
       </c>
@@ -931,7 +934,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2030</v>
       </c>
@@ -958,13 +961,13 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -978,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -987,9 +990,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1013,9 +1016,9 @@
         <v>1.8000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>0.4</v>
@@ -1039,9 +1042,9 @@
         <v>0.71999999999999975</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1064,9 +1067,9 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>0.4</v>
@@ -1099,13 +1102,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986C6978-2E2F-4D5D-B0FF-F81D2E253E98}">
   <dimension ref="A2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1119,7 +1122,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -1128,9 +1131,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1154,9 +1157,9 @@
         <v>1.8000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>0.4</v>
@@ -1180,15 +1183,15 @@
         <v>0.71999999999999975</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>0.37</v>
@@ -1205,15 +1208,15 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>0.4</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>0.37</v>
@@ -1230,9 +1233,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1255,15 +1258,15 @@
         <v>-7.95</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>0.37</v>
@@ -1290,15 +1293,15 @@
   <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.15234375" customWidth="1"/>
+    <col min="1" max="1" width="28.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1312,12 +1315,12 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>20</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1332,9 +1335,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>0.4</v>
@@ -1349,9 +1352,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>0.4</v>
@@ -1366,15 +1369,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>0.56599999999999995</v>
@@ -1383,15 +1386,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>0.4</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>0.28799999999999998</v>
@@ -1400,15 +1403,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>0.4</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>0.37</v>
@@ -1417,9 +1420,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1434,15 +1437,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1465,49 +1468,49 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>2.36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>0.18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>-1.1499999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
